--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/01/2022</t>
+          <t>04/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14180,12 +14180,12 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16514,16 +16514,16 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14228,12 +14228,12 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16562,16 +16562,16 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación y Regularización Planta IDEAL Quilicura</t>
+          <t>Ampliación Capacidad de Producción, Planta Quilicura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IDEAL S.A.</t>
+          <t>Cervecera CCU Chile Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11200</v>
+        <v>168000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155457821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155164437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad de Producción, Planta Quilicura</t>
+          <t>Ampliación y Regularización Planta IDEAL Quilicura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cervecera CCU Chile Limitada</t>
+          <t>IDEAL S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>168000</v>
+        <v>11200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155164437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155457821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad de Producción, Planta Quilicura</t>
+          <t>Ampliación y Regularización Planta IDEAL Quilicura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cervecera CCU Chile Limitada</t>
+          <t>IDEAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>168000</v>
+        <v>11200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155164437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155457821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación y Regularización Planta IDEAL Quilicura</t>
+          <t>Ampliación Capacidad de Producción, Planta Quilicura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IDEAL S.A.</t>
+          <t>Cervecera CCU Chile Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11200</v>
+        <v>168000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155457821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155164437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>19/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14276,12 +14276,12 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16610,16 +16610,16 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/05/2022</t>
+          <t>10/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F332" t="n">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VOLTA SPA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22279,11 +22279,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14420,12 +14420,12 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23282,16 +23282,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14468,12 +14468,12 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23282,16 +23282,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>30/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23330,16 +23330,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23330,16 +23330,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23330,16 +23330,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/11/2023</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Quilicura.xlsx
+++ b/data/Quilicura.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Edificio de Oficinas y Talleres de Reparación- Volvo Chile SPA</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Volvo Com Vehicles and Construction Equipament South Cone Spa</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6240983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes CCU Ltda.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>OPTIMIZACION CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes CCU Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3359767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Parques Cementerios Quilicura (e-seia)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>30</v>
+        <v>800</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Parques Cementerios Quilicura (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad Promotora de Negocios Inmobiliarios Dos S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2591764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ampliación Planta Elaboradora de Cerámicas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Cerámicas Cordillera S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Ampliación Planta Elaboradora de Cerámicas</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Cerámicas Cordillera S.A.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
